--- a/Measurements/Medidas_reg_perm.xlsx
+++ b/Measurements/Medidas_reg_perm.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unioviedo-my.sharepoint.com/personal/uo225226_uniovi_es/Documents/PhD/GitHub/Heatmap/Measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="244" documentId="8_{B71D3C16-C622-4133-811F-139EDED59E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98516049-9EDF-49FB-BE75-CF7C00913CE4}"/>
+  <xr:revisionPtr revIDLastSave="245" documentId="8_{B71D3C16-C622-4133-811F-139EDED59E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05911EDB-A4F9-4C4A-8A8B-C104A5B6084D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{10A41949-BF38-4568-8C4C-3670874F1FFE}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{10A41949-BF38-4568-8C4C-3670874F1FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,10 +65,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,16 +111,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -130,9 +140,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,7 +180,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -276,7 +286,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -418,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -428,7 +438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1740FE51-9196-43D2-BF65-5A0EEE16C2CF}">
   <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C24" workbookViewId="0">
       <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
@@ -1339,7 +1349,7 @@
         <f t="shared" si="3"/>
         <v>12.356493</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="U24">
@@ -1470,6 +1480,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="N24" r:id="rId1" xr:uid="{824FF9FD-6CF8-4A6A-B3D3-B0FD6F894AD9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>